--- a/biology/Botanique/Hymenophyllaceae/Hymenophyllaceae.xlsx
+++ b/biology/Botanique/Hymenophyllaceae/Hymenophyllaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hymenophyllaceae, uniques représentants de l'ordre des Hymenophyllales, sont une famille de fougères souvent épiphytes et de très petites tailles.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Hymenophyllum, dérivé du grec υμένας / ymenas, « membrane ; peau », et φύλλων / fyllon), feuille, en référence à la fine texture des feuilles de la plupart des espèces de ce genre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Hymenophyllum, dérivé du grec υμένας / ymenas, « membrane ; peau », et φύλλων / fyllon), feuille, en référence à la fine texture des feuilles de la plupart des espèces de ce genre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fougères de la famille des Hymenophyllacées sont des plantes, souvent à rhizome rampant minuscule, et portant des feuilles de trois à quelques dizaines de cm.
 Les racines sont absentes chez certaines espèces et sont remplacées par des radicelles le long du rhizome et du pétiole des feuilles.
@@ -578,11 +594,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des genres de cette famille est particulièrement variable selon les index et les auteurs : de seulement 3 pour l'index ITIS (Integrated taxonomic information system), 6 pour Conrad Vernon Morton (cf. article en référence), 9 pour l'index NCBI (National Center for Biotechnology Information - États-Unis) ou selon l'introduction à la classification des plantes du jardin botanique du Missouri (Hymenophyllaceae : 9 genres/600 espèces) à plus de 60 références pour l'index IPNI (International plant names index) et pour celui de l'index de recherche du jardin botanique du Missouri (Tropicos) mais ces index présentent aussi les synonymies.
 Traditionnellement, cette famille est divisée en deux groupes principaux : les Hymenophylloïdes (genre type Hymenophyllum), avec une indusie à deux lèvres, et les Trichomanoïdes (genre type Trichomanes), avec une indusie tubulaire. Ce dernier groupe est morphologiquement plus diversifié et est maintenant subdivisé en plusieurs genres distincts.
-La liste ci-dessous est celle issue de l'index GRIN (Site français de GRIN - Germplasm Resources Information Network), complétée des informations issues de l'IPNI et Tropicos (les discordances sont signalées) ; les genres et sous-genres reconnus pas le document le plus récent[2] sont mis en gras :
+La liste ci-dessous est celle issue de l'index GRIN (Site français de GRIN - Germplasm Resources Information Network), complétée des informations issues de l'IPNI et Tropicos (les discordances sont signalées) ; les genres et sous-genres reconnus pas le document le plus récent sont mis en gras :
 Abrodictyum C.Presl - 1843
 Abrodictyum subgen. Abrodictyum Ebihara &amp; K.Iwats – 2006
 Abrodictyum subgen. Pachychaetum Ebihara &amp; K.Iwats – 2006
@@ -737,9 +755,11 @@
           <t>Phylogénie au sein des Ptéridophytes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
 </t>
         </is>
       </c>
